--- a/data/trans_bre/P3A_R1-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R1-Estudios-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>-0.6232881583947716</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.4807179190378355</v>
+        <v>-0.4807179190378353</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-12.33767878154889</v>
+        <v>-12.25948136984396</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-15.56342517053563</v>
+        <v>-15.2292957223378</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-16.98637579821806</v>
+        <v>-16.87243648428795</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-11.66193173980511</v>
+        <v>-11.65180739624363</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6632672031998176</v>
+        <v>-0.6570331260346851</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.689336905112767</v>
+        <v>-0.6861552527509365</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.7094144640910437</v>
+        <v>-0.7091740671935872</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.5990052146613095</v>
+        <v>-0.5938516687079317</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-6.886817179368837</v>
+        <v>-6.89471400726543</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-9.378977394649192</v>
+        <v>-8.938339540791382</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-9.947223498013001</v>
+        <v>-10.41104827782626</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-4.644220887693311</v>
+        <v>-5.093153113977513</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.4556293247165809</v>
+        <v>-0.454132891922727</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.498762315683572</v>
+        <v>-0.5009298296806644</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.5097691159474214</v>
+        <v>-0.5172152987962703</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.3217336352389672</v>
+        <v>-0.3342738032148807</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-13.727885249579</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-6.010659710441621</v>
+        <v>-6.010659710441618</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.4381804375634593</v>
@@ -749,7 +749,7 @@
         <v>-0.4068049634201102</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.2056278238625336</v>
+        <v>-0.2056278238625335</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-11.65349860421456</v>
+        <v>-12.05940807263096</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-15.07728302960189</v>
+        <v>-15.02803487938193</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-16.1982426379884</v>
+        <v>-16.59034880826425</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-8.803126621894055</v>
+        <v>-8.637533713834799</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5257879490105708</v>
+        <v>-0.5329693344055892</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4952034039699251</v>
+        <v>-0.4991763170268868</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.464124550300211</v>
+        <v>-0.4673788870878524</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2852253172136038</v>
+        <v>-0.2782483309554795</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-6.58623433540911</v>
+        <v>-6.523905982324038</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-9.524133611724375</v>
+        <v>-9.579353970475376</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-10.9856241121185</v>
+        <v>-10.88778660237158</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-3.417476593269962</v>
+        <v>-3.515001021921679</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.3318909756873369</v>
+        <v>-0.3338797887892217</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.3415748635822531</v>
+        <v>-0.3460223047775711</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.33753235175331</v>
+        <v>-0.3370714654178906</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.12611666154118</v>
+        <v>-0.1257869633380895</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-9.872238131181815</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-8.33143915530689</v>
+        <v>-8.331439155306885</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.08455113892890391</v>
@@ -849,7 +849,7 @@
         <v>-0.2339480591927069</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.2175283516885609</v>
+        <v>-0.2175283516885608</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-7.914473937537093</v>
+        <v>-8.575352369485861</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-15.39034980611314</v>
+        <v>-15.20423648400806</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-16.03794393697719</v>
+        <v>-15.77485027552975</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-12.83355310417944</v>
+        <v>-13.01419045631117</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2595813926223178</v>
+        <v>-0.2811123073339533</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3784546389339609</v>
+        <v>-0.3738065262308337</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3533213941960112</v>
+        <v>-0.3490364960452132</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3133908485134906</v>
+        <v>-0.319622019771769</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.273763534536553</v>
+        <v>3.583729848830392</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.388548132696167</v>
+        <v>-2.087323893567208</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-3.522062448855177</v>
+        <v>-3.785587206090591</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-2.995743170398031</v>
+        <v>-3.359696231675041</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1328137055957689</v>
+        <v>0.1375510776667806</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.06607477608479954</v>
+        <v>-0.06417530914607907</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.0912874564803957</v>
+        <v>-0.09322632163565996</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.08491623854982222</v>
+        <v>-0.09785415351640295</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-13.83660673533592</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-7.673739079908073</v>
+        <v>-7.673739079908071</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.4266099040227959</v>
@@ -949,7 +949,7 @@
         <v>-0.4265191556947915</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.2642349396137771</v>
+        <v>-0.264234939613777</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-10.67688797453592</v>
+        <v>-10.72208112845526</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-14.8263646870778</v>
+        <v>-14.54129090083504</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-15.88124719581275</v>
+        <v>-16.01469073713799</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-9.531825724265097</v>
+        <v>-9.71159298544277</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4847488218942516</v>
+        <v>-0.4926273919098472</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.514758276995089</v>
+        <v>-0.5091245807528822</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4723476037374283</v>
+        <v>-0.4743590609106847</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3154709121479951</v>
+        <v>-0.3162816140136873</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-6.984483819972723</v>
+        <v>-7.069671633432494</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-10.80233170872664</v>
+        <v>-10.64775865500378</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-11.69579770592816</v>
+        <v>-11.64076742733905</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-5.386574082246391</v>
+        <v>-5.678566292211396</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.3495363662429206</v>
+        <v>-0.3574647073888658</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.4051674279462404</v>
+        <v>-0.4023958143785017</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.3717002015350112</v>
+        <v>-0.3688529406396177</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1950118544384935</v>
+        <v>-0.2016803274235703</v>
       </c>
     </row>
     <row r="16">
